--- a/T2/datasets/IO/CT.xlsx
+++ b/T2/datasets/IO/CT.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1313,12 +1313,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1468,12 +1468,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1530,12 +1530,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bacharelado em Sistemas de Informação</t>
+          <t>Bacharelado em Sistemas de Informacao</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2119,12 +2119,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2274,12 +2274,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2305,12 +2305,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2429,12 +2429,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ciência da Computação - Bacharelado</t>
+          <t>Ciencia da Computacao - Bacharelado</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2646,12 +2646,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2677,12 +2677,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2832,12 +2832,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2863,12 +2863,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2894,12 +2894,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2987,12 +2987,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3018,12 +3018,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3049,12 +3049,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3111,12 +3111,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3142,12 +3142,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Acústica</t>
+          <t>Curso de Engenharia Acustica</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3824,12 +3824,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3886,12 +3886,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3917,12 +3917,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3948,12 +3948,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3979,12 +3979,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4010,12 +4010,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4041,12 +4041,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4072,12 +4072,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4103,12 +4103,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4134,12 +4134,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4165,12 +4165,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4227,12 +4227,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4258,12 +4258,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4320,12 +4320,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4382,12 +4382,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Ambiental e Sanitária</t>
+          <t>Curso de Engenharia Ambiental e Sanitaria</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4475,12 +4475,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4506,12 +4506,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4599,12 +4599,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4630,12 +4630,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4692,12 +4692,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4723,12 +4723,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4754,12 +4754,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4785,12 +4785,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4816,12 +4816,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4847,12 +4847,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4909,12 +4909,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4971,12 +4971,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5002,12 +5002,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5064,12 +5064,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5095,12 +5095,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Computação</t>
+          <t>Curso de Engenharia de Computacao</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5157,12 +5157,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5188,12 +5188,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5312,12 +5312,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5343,12 +5343,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5374,12 +5374,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5405,12 +5405,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5436,12 +5436,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5467,12 +5467,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5498,12 +5498,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5529,12 +5529,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5560,12 +5560,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5622,12 +5622,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5653,12 +5653,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5715,12 +5715,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5746,12 +5746,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5777,12 +5777,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Produção</t>
+          <t>Curso de Engenharia de Producao</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5808,12 +5808,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5932,12 +5932,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5963,12 +5963,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6025,12 +6025,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6056,12 +6056,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6087,12 +6087,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6118,12 +6118,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6149,12 +6149,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6180,12 +6180,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6211,12 +6211,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6242,12 +6242,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6273,12 +6273,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6304,12 +6304,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6335,12 +6335,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6366,12 +6366,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6397,12 +6397,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Curso de Engenharia de Telecomunicações</t>
+          <t>Curso de Engenharia de Telecomunicacoes</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6428,12 +6428,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6459,12 +6459,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6521,12 +6521,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6552,12 +6552,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6583,12 +6583,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6614,12 +6614,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6645,12 +6645,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6707,12 +6707,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6738,12 +6738,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6769,12 +6769,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6800,12 +6800,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6831,12 +6831,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6893,12 +6893,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6924,12 +6924,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6955,12 +6955,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6986,12 +6986,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7017,12 +7017,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7048,12 +7048,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7079,12 +7079,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Curso de Engenharia Sanitária e Ambiental</t>
+          <t>Curso de Engenharia Sanitaria e Ambiental</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7141,12 +7141,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7172,12 +7172,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7203,12 +7203,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7234,12 +7234,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7265,12 +7265,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7296,12 +7296,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7327,12 +7327,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7358,12 +7358,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7389,12 +7389,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7420,12 +7420,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7451,12 +7451,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7482,12 +7482,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7513,12 +7513,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7575,12 +7575,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7606,12 +7606,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7637,12 +7637,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7668,12 +7668,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7699,12 +7699,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7730,12 +7730,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7761,12 +7761,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Curso Engenharia de Controle e Automação</t>
+          <t>Curso Engenharia de Controle e Automacao</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8324,7 +8324,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8355,7 +8355,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8386,7 +8386,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8474,12 +8474,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8505,12 +8505,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -8536,12 +8536,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8567,12 +8567,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -8598,12 +8598,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -8629,12 +8629,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -8660,12 +8660,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -8691,12 +8691,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -8722,12 +8722,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -8753,12 +8753,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -8784,12 +8784,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -8815,12 +8815,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -8846,12 +8846,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -8877,12 +8877,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -8908,12 +8908,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -8939,12 +8939,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -8970,12 +8970,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -9001,12 +9001,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -9032,12 +9032,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -9094,12 +9094,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9125,12 +9125,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Engenharia Elétrica</t>
+          <t>Engenharia Eletrica</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9156,12 +9156,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -9187,12 +9187,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -9218,12 +9218,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9249,12 +9249,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9280,12 +9280,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9311,12 +9311,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9342,12 +9342,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9373,12 +9373,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9404,12 +9404,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9435,12 +9435,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9466,12 +9466,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -9497,12 +9497,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -9528,12 +9528,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -9559,12 +9559,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -9590,12 +9590,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -9621,12 +9621,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9652,12 +9652,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9683,12 +9683,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -9745,12 +9745,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -9776,12 +9776,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -9807,12 +9807,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Engenharia Mecânica</t>
+          <t>Engenharia Mecanica</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -9838,12 +9838,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -9869,12 +9869,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -9931,12 +9931,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -9962,12 +9962,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -9993,12 +9993,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -10024,12 +10024,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -10055,12 +10055,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -10086,12 +10086,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -10117,12 +10117,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -10148,12 +10148,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -10179,12 +10179,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -10210,12 +10210,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -10241,12 +10241,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -10272,12 +10272,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -10303,12 +10303,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -10334,12 +10334,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -10365,12 +10365,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -10396,12 +10396,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -10427,12 +10427,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -10489,12 +10489,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Engenharia Química</t>
+          <t>Engenharia Quimica</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
